--- a/inhibition/inhibition results.xlsx
+++ b/inhibition/inhibition results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Gene KO\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Gene_knockout\project\inhibition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDBCE0A-1A79-451C-9B11-F8DBAFDBD414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE136A14-2111-421E-A36B-8750CB73FA4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27915" yWindow="1140" windowWidth="25740" windowHeight="13290" xr2:uid="{1AFF7E73-ECF5-49DE-92E0-5FC8E5895797}"/>
+    <workbookView xWindow="5340" yWindow="405" windowWidth="22005" windowHeight="14835" xr2:uid="{1AFF7E73-ECF5-49DE-92E0-5FC8E5895797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
